--- a/anime.xlsx
+++ b/anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79213\Desktop\проба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B37999-F6A3-46E8-9DAC-DAE89B7869E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72262A4-231B-4833-BC48-78E1C130AE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Романтика" sheetId="1" r:id="rId1"/>
@@ -280,9 +280,6 @@
     <t>https://yummyani.me/catalog/item/provozhayushchaya-posledniy-put-friren</t>
   </si>
   <si>
-    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/5a709a018f697.jpg</t>
-  </si>
-  <si>
     <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/633886a44d317901831310.jpg</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>https://yummyani.me/catalog/item/obeshannyj-neverlend</t>
+  </si>
+  <si>
+    <t>https://irecommend.ru/sites/default/files/product-images/2940206/wa1c1jm24sc7dzC83Muu9w.jpeg</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C91A15-9E6D-4D8F-9AE6-5370C2CB16AB}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1201,10 +1201,10 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -1224,10 +1224,10 @@
         <v>9.11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -1247,10 +1247,10 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
@@ -1291,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6140C47D-8498-42DB-889A-D9E6B3DABE8C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1339,10 +1339,10 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -1362,10 +1362,10 @@
         <v>8.75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -1385,10 +1385,10 @@
         <v>8.4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -1408,10 +1408,10 @@
         <v>8.67</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -1477,10 +1477,10 @@
         <v>9.19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -1523,10 +1523,10 @@
         <v>9.25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -1546,10 +1546,10 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -1611,10 +1611,10 @@
         <v>8.65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -1634,10 +1634,10 @@
         <v>8.26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -1657,10 +1657,10 @@
         <v>8.31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -1680,10 +1680,10 @@
         <v>7.75</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>

--- a/anime.xlsx
+++ b/anime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79213\Desktop\проба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79213\Desktop\proba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72262A4-231B-4833-BC48-78E1C130AE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE616C38-4D14-44B3-B0EB-CD1735F326DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Романтика" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="154">
   <si>
     <t>Название</t>
   </si>
@@ -362,6 +362,150 @@
   </si>
   <si>
     <t>https://irecommend.ru/sites/default/files/product-images/2940206/wa1c1jm24sc7dzC83Muu9w.jpeg</t>
+  </si>
+  <si>
+    <t>Созданный в Бездне: Рассвет глубокой души</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/6004141de630c224433703.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/sozdannyj-v-bezdne-2</t>
+  </si>
+  <si>
+    <t>Сага о Винланде</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/5d8f86db39318930257463.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/saga-o-vinlande</t>
+  </si>
+  <si>
+    <t>Хоримия</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/649d6823b618d097585759.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/horimiya</t>
+  </si>
+  <si>
+    <t>Любовь с кончиков пальцев</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/659f8deadc161636211685.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/lyubov-konchikov-paltsev</t>
+  </si>
+  <si>
+    <t>Поднятие уровня в одиночку</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/659f8dd485857721242765.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/podnyatie-urovnya-odinochku</t>
+  </si>
+  <si>
+    <t>Человек-бензопила</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/6319cd947a99a365246749.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/chelovek-benzopila</t>
+  </si>
+  <si>
+    <t>Невероятное приключение ДжоДжо: Рыцари звёздной пыли 2</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/5ccc35c6270a2865736384.jpg</t>
+  </si>
+  <si>
+    <t>https://animego.org/anime/neveroyatnoe-priklyuchenie-dzhodzho-rycari-zvezdnoy-pyli-2-987</t>
+  </si>
+  <si>
+    <t>Доктор Стоун: Новый мир. Часть 2</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/65280e06a81b0930473385.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/doktor-stoun-noviy-mir-chast-2</t>
+  </si>
+  <si>
+    <t>Волейбол!! К вершине 2</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/5f422c74517b8366786351.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/volejbol-k-vershine-2</t>
+  </si>
+  <si>
+    <t>Подземелье вкусностей</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/66112eced2b80482910239.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/podzemele-vkusnostey</t>
+  </si>
+  <si>
+    <t>Паразит: Учение о жизни</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/5e146c0e398d3512268183.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/parazit-uchenie-o-zhizni</t>
+  </si>
+  <si>
+    <t>Кабанэри железной крепости</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/5cb095d17b124519710614.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/kabaneri-zheleznoj-kreposti</t>
+  </si>
+  <si>
+    <t>Великий из бродячих псов 5</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/649ff5d11c928811767763.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/velikiy-iz-brodyachih-psov-5</t>
+  </si>
+  <si>
+    <t>Необычное такси</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/606d2bf622ec2958495406.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/sluchajnoe-taksi</t>
+  </si>
+  <si>
+    <t>Царство 4</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/62925dfbcc907198894598.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/carstvo-4</t>
+  </si>
+  <si>
+    <t>Дороро</t>
+  </si>
+  <si>
+    <t>https://animego.org/media/cache/thumbs_500x700/upload/anime/images/5ccc63a05fb23958389516.jpg</t>
+  </si>
+  <si>
+    <t>https://yummyani.me/catalog/item/dororo</t>
   </si>
 </sst>
 </file>
@@ -442,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -451,6 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -732,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -839,7 +984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -860,6 +1005,52 @@
       </c>
       <c r="G5" s="1">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C91A15-9E6D-4D8F-9AE6-5370C2CB16AB}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -980,25 +1171,71 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="C5" s="1">
-        <v>9.18</v>
+        <v>9.4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>1112</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1011,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9A8034-ECF8-4C99-8EF5-27E9B7B211FC}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1144,6 +1381,52 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1152,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BF2732-82D8-4EB2-9556-AFB20D18FC55}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1282,6 +1565,52 @@
         <v>1112</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1289,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6140C47D-8498-42DB-889A-D9E6B3DABE8C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1420,6 +1749,52 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1427,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1877044D-FFFE-4F6C-A1F3-5E705EF572F4}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1558,6 +1933,52 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1565,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AC7F31-22FA-446A-BE33-D2839588371B}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1692,6 +2113,52 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1699,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1B9D95-DE84-4B11-8892-8AAE74ADB82E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1828,6 +2295,52 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.94</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1835,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D042A4F5-0387-48E6-9AED-7371B131E81C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1966,6 +2479,52 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/anime.xlsx
+++ b/anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79213\Desktop\proba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE616C38-4D14-44B3-B0EB-CD1735F326DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39516E2D-EBDF-49F4-927A-0529A4522FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Романтика" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -595,7 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -880,7 +879,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1251,7 +1250,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1438,7 +1437,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1621,7 +1620,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1805,7 +1804,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1989,7 +1988,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2114,7 +2113,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B6" s="1">
@@ -2169,7 +2168,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2351,7 +2350,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
